--- a/Footwear/CROX_MODEL.xlsx
+++ b/Footwear/CROX_MODEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Footwear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AC802A-58AF-43C8-B291-C3E9B0F10ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8B74B-DF92-4904-89AD-1D689CA2196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="9885" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Alex</author>
+  </authors>
+  <commentList>
+    <comment ref="U13" authorId="0" shapeId="0" xr:uid="{23343D69-E916-4055-B8CD-2062C2F29A9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Impairment of 737</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="149">
   <si>
     <t>Price</t>
   </si>
@@ -238,9 +272,6 @@
   </si>
   <si>
     <t>HeyDude Direct to Consumer</t>
-  </si>
-  <si>
-    <t>No guidance - Macroeconomic</t>
   </si>
   <si>
     <t>SGA</t>
@@ -633,6 +664,21 @@
   <si>
     <t>Balance Sheet Progress</t>
   </si>
+  <si>
+    <t>-9% to -11% revenue YOY</t>
+  </si>
+  <si>
+    <t>Adjusted operating margins of 18% to 19%</t>
+  </si>
+  <si>
+    <t>No FY outlook</t>
+  </si>
+  <si>
+    <t>TTM P/E</t>
+  </si>
+  <si>
+    <t>Includes big impairment</t>
+  </si>
 </sst>
 </file>
 
@@ -642,7 +688,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,23 +756,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -857,7 +889,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -874,7 +906,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -910,11 +941,9 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1251,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB11C10-986F-41A4-B3DD-2A72A923BC11}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1328,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1316,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="3">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1339,13 +1368,24 @@
       </c>
       <c r="B9" s="3">
         <f>B6 - B7 + B8</f>
-        <v>7153.44</v>
+        <v>7118.44</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>35.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3">
+        <v>22.31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1355,11 +1395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1418,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1386,90 +1426,90 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34">
         <v>142</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="34">
         <v>172</v>
       </c>
       <c r="M3" s="3">
@@ -1496,24 +1536,27 @@
       <c r="T3" s="3">
         <v>171</v>
       </c>
+      <c r="U3" s="3">
+        <v>167</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34">
         <v>315</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="34">
         <v>179</v>
       </c>
       <c r="M4" s="3">
@@ -1540,24 +1583,27 @@
       <c r="T4" s="3">
         <v>198</v>
       </c>
+      <c r="U4" s="3">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34">
         <v>145</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="34">
         <v>239</v>
       </c>
       <c r="M5" s="3">
@@ -1584,24 +1630,27 @@
       <c r="T5" s="3">
         <v>306</v>
       </c>
+      <c r="U5" s="3">
+        <v>298</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34">
         <v>64</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="34">
         <v>59</v>
       </c>
       <c r="M6" s="3">
@@ -1628,24 +1677,27 @@
       <c r="T6" s="3">
         <v>87</v>
       </c>
+      <c r="U6" s="3">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34">
         <v>143</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="34">
         <v>168</v>
       </c>
       <c r="M7" s="3">
@@ -1672,24 +1724,27 @@
       <c r="T7" s="3">
         <v>110</v>
       </c>
+      <c r="U7" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34">
         <v>136</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="34">
         <v>68</v>
       </c>
       <c r="M8" s="3">
@@ -1716,20 +1771,23 @@
       <c r="T8" s="3">
         <v>65</v>
       </c>
+      <c r="U8" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:24" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1798,58 +1856,58 @@
         <f t="shared" si="0"/>
         <v>937</v>
       </c>
-      <c r="U10" s="40">
-        <v>1140</v>
+      <c r="U10" s="6">
+        <v>1149</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35">
         <v>207</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>246</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>226</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>215</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>335</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>467</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>444</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>449</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>408</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>451</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>464</v>
       </c>
       <c r="O11" s="3">
         <v>429</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>417</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <v>430</v>
       </c>
       <c r="R11" s="3">
@@ -1861,7 +1919,9 @@
       <c r="T11" s="3">
         <v>396</v>
       </c>
-      <c r="U11" s="41"/>
+      <c r="U11" s="3">
+        <v>441</v>
+      </c>
     </row>
     <row r="12" spans="1:24" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -1870,7 +1930,7 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
-        <f t="shared" ref="D12:T12" si="1">D10 -D11</f>
+        <f t="shared" ref="D12:U12" si="1">D10 -D11</f>
         <v>253</v>
       </c>
       <c r="E12" s="6">
@@ -1937,66 +1997,71 @@
         <f t="shared" si="1"/>
         <v>541</v>
       </c>
-      <c r="U12" s="40"/>
+      <c r="U12" s="6">
+        <f t="shared" si="1"/>
+        <v>708</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35">
         <v>128</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>200</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>197</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>212</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>206</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>250</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>277</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>276</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>241</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <v>303</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>308</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="35">
         <v>321</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>296</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <v>356</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <v>364</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <v>373</v>
       </c>
       <c r="T13" s="3">
         <v>319</v>
       </c>
-      <c r="U13" s="42"/>
+      <c r="U13" s="35">
+        <v>1136</v>
+      </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
@@ -2004,7 +2069,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" ref="D14:T14" si="2">D12-SUM(D13:D13)</f>
+        <f t="shared" ref="D14:U14" si="2">D12-SUM(D13:D13)</f>
         <v>125</v>
       </c>
       <c r="E14" s="7">
@@ -2071,36 +2136,39 @@
         <f t="shared" si="2"/>
         <v>222</v>
       </c>
-      <c r="U14" s="43"/>
+      <c r="U14" s="7">
+        <f t="shared" si="2"/>
+        <v>-428</v>
+      </c>
     </row>
     <row r="15" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36">
+        <v>56</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35">
         <v>-0.4</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <v>0.5</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <v>-2</v>
       </c>
       <c r="O15" s="3">
         <v>0.4</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="35">
         <v>-2</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="35">
         <v>-1</v>
       </c>
       <c r="R15" s="3">
@@ -2112,40 +2180,39 @@
       <c r="T15" s="3">
         <v>5</v>
       </c>
-      <c r="U15" s="41"/>
     </row>
     <row r="16" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36">
+        <v>57</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35">
         <v>0.2</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <v>0.5</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>0.5</v>
       </c>
       <c r="O16" s="3">
         <v>1</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>0.4</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>1</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <v>1</v>
       </c>
       <c r="S16" s="3">
@@ -2154,40 +2221,40 @@
       <c r="T16" s="3">
         <v>0.3</v>
       </c>
-      <c r="U16" s="42"/>
+      <c r="U16" s="35"/>
     </row>
     <row r="17" spans="2:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36">
+        <v>58</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35">
         <v>-43</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>43</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>39</v>
       </c>
       <c r="O17" s="3">
         <v>36</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>31</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="35">
         <v>29</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="35">
         <v>26</v>
       </c>
       <c r="S17" s="3">
@@ -2196,39 +2263,39 @@
       <c r="T17" s="3">
         <v>22</v>
       </c>
-      <c r="U17" s="42"/>
+      <c r="U17" s="35"/>
     </row>
     <row r="18" spans="2:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36">
+        <v>59</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35">
         <v>-0.3</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>7</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <v>0.02</v>
       </c>
       <c r="O18" s="3">
         <v>-0.7</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>0.02</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <v>0.4</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <v>0.2</v>
       </c>
       <c r="S18" s="3">
@@ -2237,55 +2304,54 @@
       <c r="T18" s="3">
         <v>0.5</v>
       </c>
-      <c r="U18" s="41"/>
     </row>
     <row r="19" spans="2:21" collapsed="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="36">
+        <v>60</v>
+      </c>
+      <c r="D19" s="35">
         <v>123</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>191</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>198</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>153</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>99</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>214</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>230</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>176</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>192</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <v>277</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <v>233</v>
       </c>
       <c r="O19" s="3">
         <v>174</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>194</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="35">
         <v>296</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="35">
         <v>245</v>
       </c>
       <c r="S19" s="3">
@@ -2294,55 +2360,57 @@
       <c r="T19" s="3">
         <v>205</v>
       </c>
-      <c r="U19" s="41"/>
+      <c r="U19" s="3">
+        <v>-449</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="36">
+        <v>61</v>
+      </c>
+      <c r="D20" s="35">
         <v>24</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>-128</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>44</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>-2</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>26</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>54</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>60</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>38</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>42</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>65</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="35">
         <v>56</v>
       </c>
       <c r="O20" s="3">
         <v>-80</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="35">
         <v>42</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="35">
         <v>68</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="35">
         <v>45</v>
       </c>
       <c r="S20" s="3">
@@ -2351,7 +2419,9 @@
       <c r="T20" s="3">
         <v>45</v>
       </c>
-      <c r="U20" s="41"/>
+      <c r="U20" s="3">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="2:21" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
@@ -2425,68 +2495,69 @@
         <f>T19-T20</f>
         <v>160</v>
       </c>
-      <c r="U21" s="43">
-        <v>223</v>
+      <c r="U21" s="7">
+        <f>U19-U20</f>
+        <v>-493</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36">
         <v>1.5</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>2.63</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>1.22</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>2.6</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>2.75</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <v>2.23</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>2.42</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="36">
         <v>3.42</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="36">
         <v>2.9</v>
       </c>
       <c r="O22" s="3">
         <v>4.1900000000000004</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="36">
         <v>2.52</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="36">
         <v>3.79</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="36">
         <v>3.38</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="36">
         <v>6.4</v>
       </c>
       <c r="T22" s="3">
         <v>2.85</v>
       </c>
-      <c r="U22" s="44">
-        <v>4</v>
+      <c r="U22" s="40">
+        <v>-8.82</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
@@ -2520,22 +2591,22 @@
       <c r="L23" s="3">
         <v>2.39</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="35">
         <v>3.39</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="35">
         <v>2.87</v>
       </c>
       <c r="O23" s="3">
         <v>4.16</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>2.5</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="35">
         <v>3.77</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="35">
         <v>3.36</v>
       </c>
       <c r="S23" s="3">
@@ -2544,8 +2615,8 @@
       <c r="T23" s="3">
         <v>2.83</v>
       </c>
-      <c r="U23" s="41">
-        <v>4</v>
+      <c r="U23" s="39">
+        <v>-8.82</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
@@ -2553,16 +2624,16 @@
         <v>46</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" ref="H25:U25" si="4">(H10/D10) - 1</f>
@@ -2618,7 +2689,7 @@
       </c>
       <c r="U25" s="8">
         <f t="shared" si="4"/>
-        <v>2.5179856115107979E-2</v>
+        <v>3.3273381294963933E-2</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
@@ -2626,10 +2697,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:U26" si="5" xml:space="preserve"> (E10/D10) - 1</f>
+        <f t="shared" ref="E26:T26" si="5" xml:space="preserve"> (E10/D10) - 1</f>
         <v>0.39347826086956528</v>
       </c>
       <c r="F26" s="8">
@@ -2694,7 +2765,7 @@
       </c>
       <c r="U26" s="8">
         <f xml:space="preserve"> (U10/T10) - 1</f>
-        <v>0.216648879402348</v>
+        <v>0.22625400213447167</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
@@ -2718,7 +2789,7 @@
     </row>
     <row r="28" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="8">
         <v>0.55000000000000004</v>
@@ -2771,10 +2842,13 @@
       <c r="T28" s="8">
         <v>0.57799999999999996</v>
       </c>
+      <c r="U28" s="8">
+        <v>0.61699999999999999</v>
+      </c>
     </row>
     <row r="29" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="8">
         <v>0.55000000000000004</v>
@@ -2830,22 +2904,22 @@
     </row>
     <row r="30" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" s="8">
         <v>0.32</v>
@@ -2886,7 +2960,7 @@
     </row>
     <row r="31" spans="2:21" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="10">
         <v>0.27</v>
@@ -2939,49 +3013,52 @@
       <c r="T31" s="10">
         <v>0.24</v>
       </c>
+      <c r="U31" s="10">
+        <v>-0.372</v>
+      </c>
     </row>
     <row r="33" spans="2:30" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39">
+      <c r="C33" s="37"/>
+      <c r="D33" s="38">
         <v>30.2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>212.2</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>112.8</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>212</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="38">
         <v>-68.8</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="38">
         <v>153.5</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="38">
         <v>161.9</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="38">
         <v>356.5</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="38">
         <v>9.9</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="38">
         <v>320.7</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="38">
         <v>250.1</v>
       </c>
-      <c r="O33" s="39">
+      <c r="O33" s="38">
         <v>349.7</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="38">
         <v>-27.6</v>
       </c>
       <c r="Q33" s="11">
@@ -2996,53 +3073,56 @@
       <c r="T33" s="11">
         <v>-67.2</v>
       </c>
+      <c r="U33" s="11">
+        <v>286</v>
+      </c>
     </row>
     <row r="34" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36">
+      <c r="C34" s="34"/>
+      <c r="D34" s="35">
         <v>8</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>13.3</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <v>14.4</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <v>20.2</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <f>39.8 + 2031.8</f>
         <v>2071.6</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>32.799999999999997</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="35">
         <v>32.799999999999997</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>14.6</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>27.6</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="35">
         <v>24.1</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="35">
         <v>34.700000000000003</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="35">
         <v>29.2</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="35">
         <v>15.8</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="35">
         <v>17.100000000000001</v>
       </c>
       <c r="R34" s="3">
@@ -3054,9 +3134,12 @@
       <c r="T34" s="3">
         <v>15</v>
       </c>
+      <c r="U34" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="35" spans="2:30" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="11">
@@ -3127,29 +3210,29 @@
         <f>T33-T34</f>
         <v>-82.2</v>
       </c>
-      <c r="U35" s="11" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="U35" s="11">
+        <f>U33-U34</f>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
+      <c r="B36" s="34"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>42</v>
       </c>
       <c r="H37" s="8">
@@ -3204,13 +3287,13 @@
         <f>IF(P35=0,IF(T35=0,0,NA()),(T35-P35)/ABS(P35))</f>
         <v>-0.89400921658986154</v>
       </c>
-      <c r="U37" s="8" t="e">
+      <c r="U37" s="8">
         <f>IF(Q35=0,IF(U35=0,0,NA()),(U35-Q35)/ABS(Q35))</f>
-        <v>#REF!</v>
+        <v>-0.29966154647227278</v>
       </c>
     </row>
     <row r="39" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
+      <c r="B39" s="34"/>
       <c r="D39" s="13"/>
       <c r="K39" s="13"/>
     </row>
@@ -3234,15 +3317,15 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
       <c r="R40" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T40" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="U40" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="T40" s="15"/>
+      <c r="U40" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
@@ -3251,53 +3334,58 @@
       <c r="AA40" s="15"/>
       <c r="AB40" s="15"/>
       <c r="AC40" s="15"/>
-      <c r="AD40" s="17"/>
+      <c r="AD40" s="16"/>
     </row>
     <row r="41" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="S41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD41" s="18"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B42" s="17"/>
+      <c r="S42" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AD41" s="19"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="S42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U42" s="20"/>
-      <c r="AD42" s="19"/>
+      <c r="U42" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD42" s="18"/>
     </row>
     <row r="43" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="22"/>
-      <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="22"/>
-      <c r="Y43" s="22"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="22"/>
-      <c r="AB43" s="22"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="23"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="22"/>
     </row>
     <row r="44" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:30" x14ac:dyDescent="0.2">
@@ -3309,7 +3397,7 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -3322,91 +3410,91 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
-      <c r="W45" s="17"/>
+      <c r="W45" s="16"/>
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
       <c r="G46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
+      <c r="H47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="W46" s="19"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="H47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R47" s="3" t="s">
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
+      <c r="R48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="W47" s="19"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="R48" s="3" t="s">
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="W48" s="19"/>
-    </row>
-    <row r="49" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="23"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="22"/>
     </row>
     <row r="50" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="E52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="E53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="23"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
@@ -3424,64 +3512,64 @@
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
-      <c r="P57" s="17"/>
+      <c r="P57" s="16"/>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="P58" s="19"/>
+      <c r="B58" s="17"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="P59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="P60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="P61" s="19"/>
+      <c r="B61" s="17"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
-      <c r="P62" s="19"/>
+      <c r="B62" s="17"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
-      <c r="P63" s="19"/>
+      <c r="B63" s="17"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
-      <c r="P64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
-      <c r="P65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="P66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="P66" s="18"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="P67" s="19"/>
+      <c r="B67" s="17"/>
+      <c r="P67" s="18"/>
     </row>
     <row r="68" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3490,6 +3578,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3517,248 +3606,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="C2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2.83</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0.189</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="27">
-        <v>2.83</v>
-      </c>
-      <c r="E2" s="28">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="F2" s="28">
-        <v>0.189</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="I2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F3" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F3" s="29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="C4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="F4" s="28">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F4" s="29">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G4" s="26" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1.34</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.52</v>
+      </c>
+      <c r="F5" s="28">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="27">
-        <v>1.34</v>
-      </c>
-      <c r="E5" s="29">
-        <v>0.52</v>
-      </c>
-      <c r="F5" s="29">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="26" t="s">
+      <c r="I6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="F6" s="29">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G6" s="26" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="C7" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0.93</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3870,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1">
         <v>350</v>
@@ -3789,7 +3878,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>350</v>
@@ -3797,7 +3886,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>500</v>
@@ -3805,7 +3894,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>320</v>
@@ -3813,7 +3902,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1">
         <v>303</v>
@@ -3821,7 +3910,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>78</v>
@@ -3829,7 +3918,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(B1:B5)</f>
@@ -3838,12 +3927,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3852,21 +3941,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4010,31 +4084,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4050,4 +4115,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Footwear/CROX_MODEL.xlsx
+++ b/Footwear/CROX_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Footwear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8B74B-DF92-4904-89AD-1D689CA2196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109BCD05-4D90-4B12-A24C-6F862D08335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="7665" windowWidth="21600" windowHeight="11385" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -688,13 +688,19 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -886,64 +892,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1283,7 +1289,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1314,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>97.49</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4">
-        <v>45872</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1337,7 +1343,7 @@
       </c>
       <c r="B6" s="3">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>5459.44</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1368,7 +1374,7 @@
       </c>
       <c r="B9" s="3">
         <f>B6 - B7 + B8</f>
-        <v>7118.44</v>
+        <v>5579</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>29</v>
@@ -1398,7 +1404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AD68"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
@@ -3941,6 +3947,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -4084,15 +4099,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4100,6 +4106,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4113,14 +4127,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
